--- a/docTest.xlsx
+++ b/docTest.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonfio1515\Desktop\Proyecto Coder\ProyectoFinal\Copertini-Mesaglio-Fiorentino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Archivos_Fede\Documentos\Cursos\Python\github\Copertini-Mesaglio-Fiorentino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C671C3D6-1635-4ADC-AD4D-58AAF62FA1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B72BD4-E0CF-45C2-8396-F753D2D6B702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1214676B-4D6F-49C1-B67D-239A33D7024A}"/>
+    <workbookView xWindow="-10485" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{1214676B-4D6F-49C1-B67D-239A33D7024A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Nombre del proyecto</t>
   </si>
@@ -132,13 +132,40 @@
   </si>
   <si>
     <t>Google Chrome</t>
+  </si>
+  <si>
+    <t>Comprobar modelo de curso</t>
+  </si>
+  <si>
+    <t>Abrir la vista de inicio</t>
+  </si>
+  <si>
+    <t>Función Vinicio</t>
+  </si>
+  <si>
+    <t>Creación de curso</t>
+  </si>
+  <si>
+    <t>El cruso fue creado correctamente</t>
+  </si>
+  <si>
+    <t>Función Vnoticias</t>
+  </si>
+  <si>
+    <t>Abrir la vista de noticias</t>
+  </si>
+  <si>
+    <t>Abre la vista de noticias</t>
+  </si>
+  <si>
+    <t>Abre la vista de inicio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,21 +181,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -200,37 +228,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,6 +345,18 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -360,7 +452,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E01265A0-CD02-B6BE-DED9-719FE09DACCE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -427,7 +519,141 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D99B2B-5F97-3E8E-E42D-32F82FEEA442}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>361950</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>361950</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -477,19 +703,19 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="304800" cy="266700"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
+            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
+                  <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E158E9D-72B1-4077-AB2B-58DEE348D993}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78DB7D9F-8094-46EF-9637-1F1A206E769A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -539,19 +765,81 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="304800" cy="266700"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
+            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1030"/>
+                  <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB45D761-3EB6-4F2F-952B-8093571156CB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCCB1637-D3B0-464A-BFC8-751A8BB3F141}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="304800" cy="266700"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CAA4591-9309-41BE-88C8-38D127FDF25F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -895,229 +1183,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFBA17A-C1B5-4E09-981C-55634899F8BA}">
-  <dimension ref="A2:I13"/>
+  <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="4"/>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="10">
+      <c r="B3" s="9"/>
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="4"/>
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="4"/>
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="4"/>
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F6" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>6</v>
+      </c>
+      <c r="B14" s="16">
+        <v>44763</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>7</v>
+      </c>
+      <c r="B15" s="16">
+        <v>44763</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>8</v>
+      </c>
+      <c r="B16" s="16">
+        <v>44763</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="22">
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1236,6 +1593,72 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId9" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>361950</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId10" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>361950</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId11" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>361950</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
